--- a/12_05_multiplicationTable/table.xlsx
+++ b/12_05_multiplicationTable/table.xlsx
@@ -21,16 +21,59 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <borders count="1">
+  <fonts count="2">
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -362,15 +405,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/12_05_multiplicationTable/table.xlsx
+++ b/12_05_multiplicationTable/table.xlsx
@@ -29,7 +29,7 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="0"/>
@@ -447,30 +447,138 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
